--- a/fileapp/uploads/test_files/dummy_test.xlsx
+++ b/fileapp/uploads/test_files/dummy_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="234">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -692,16 +692,47 @@
   </si>
   <si>
     <t xml:space="preserve">Henke Henke (1973-12-04), Carsten SPRINGFELD (1971-12-18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH11178448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamp Koren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74958700e8681600f4599f30aadcc810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camper / Caravan site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duin Jurjen, mr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marijkeduin@kpnmail.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaart noordzijde, 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8426AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appelscha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurjen Duin (1954-06-26), Marijke Duin (1968-07-20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -791,7 +822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -816,6 +847,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,10 +872,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X103" activeCellId="0" sqref="X103"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2461,7 +2500,86 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>11178448</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>44456</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>44459</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>641122652</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
